--- a/tests/diagdom/mat.xlsx
+++ b/tests/diagdom/mat.xlsx
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
@@ -793,7 +793,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O5" s="15">
         <v>9</v>
